--- a/registration.xlsx
+++ b/registration.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -947,6 +947,231 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>vinay</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>saidulu</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Classical</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3 month</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2025-12-15 23:31:46</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>veesamvinaykumar@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>vinay</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>saidulu</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Zumba</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3 month</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2025-12-15 23:33:23</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>veesamvinaykumar@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>vinay</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>saidulu</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Classical</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3 month</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2025-12-16 01:17:42</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>veesamvinaykumar@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>vinay</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>saidulu</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Classical</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3 month</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2025-12-16 01:20:04</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>veesamvinaykumar@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>vinay</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>saidulu</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Classical</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3 month</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2025-12-16 01:22:02</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>veesamvinaykumar@gmail.com</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
